--- a/GATEWAY/A1#111O3ENTERPRISESRL/o3enterprise/cis/4.20.0/accreditamento-checklist.xlsx
+++ b/GATEWAY/A1#111O3ENTERPRISESRL/o3enterprise/cis/4.20.0/accreditamento-checklist.xlsx
@@ -204,7 +204,27 @@
     <t xml:space="preserve">subject_application_id: cis</t>
   </si>
   <si>
-    <t xml:space="preserve">subject_application_vendor: O3 Enterprise s.r.l</t>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">subject_application_vendor: </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">o3enterprise</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">subject_application_version: 4.20.0</t>
@@ -826,7 +846,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -900,6 +920,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1212,7 +1239,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1224,7 +1251,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1264,7 +1291,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2592,7 +2619,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
